--- a/biology/Botanique/Arctotis/Arctotis.xlsx
+++ b/biology/Botanique/Arctotis/Arctotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctotis est un genre de plante à fleurs de la famille des Asteraceae. Il comprend environ 80 espèces originaires du sud de l'Afrique, de l'Angola jusqu'à l'Afrique du Sud.
-Certaines de ses espèces sont placées dans le genre Venidium ou dans le genre Arctotheca selon les auteurs, leur classification est actuellement en cours de modification[1].
+Certaines de ses espèces sont placées dans le genre Venidium ou dans le genre Arctotheca selon les auteurs, leur classification est actuellement en cours de modification.
 Certains Arctotis sont cultivés comme plantes annuelles semi-rustiques pour leurs jolies fleurs jaunes, orange, rouges ou blanches.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arctotis acaulis - Arctotis acaule
 Arctotis adpressa
